--- a/Arduino-Leonardo/Analysis/Season-of-Birth/KeyData.xlsx
+++ b/Arduino-Leonardo/Analysis/Season-of-Birth/KeyData.xlsx
@@ -381,7 +381,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,7 +420,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -453,7 +453,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -486,7 +486,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -519,7 +519,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
